--- a/medicine/Mort/Westwood_Village_Memorial_Park_Cemetery/Westwood_Village_Memorial_Park_Cemetery.xlsx
+++ b/medicine/Mort/Westwood_Village_Memorial_Park_Cemetery/Westwood_Village_Memorial_Park_Cemetery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Pierce Brothers Westwood Village Memorial Park Cemetery (communément appelé de son nom précédent, Westwood Memorial Park) est un cimetière situé au 1218 avenue Glendon, dans le quartier de Westwood Village à Los Angeles, en Californie. Il a été inauguré en 1904 sous le nom initial de Sunset Cemetery[1].
-Dans ce cimetière de petite taille (moins d'un hectare[2]) se trouvent les sépultures de quelques-uns des plus grands noms de l'industrie du divertissement, à commencer par Marilyn Monroe, inhumée en 1962. Joe DiMaggio, chargé des funérailles de M. Monroe, a choisi le Westwood Memorial Park car c'est là que reposaient Grace Goddard (amie de la mère de Monroe) et la tante de G. Goddard, Ana Bas, qui avaient toutes les deux recueilli Marilyn enfant.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pierce Brothers Westwood Village Memorial Park Cemetery (communément appelé de son nom précédent, Westwood Memorial Park) est un cimetière situé au 1218 avenue Glendon, dans le quartier de Westwood Village à Los Angeles, en Californie. Il a été inauguré en 1904 sous le nom initial de Sunset Cemetery.
+Dans ce cimetière de petite taille (moins d'un hectare) se trouvent les sépultures de quelques-uns des plus grands noms de l'industrie du divertissement, à commencer par Marilyn Monroe, inhumée en 1962. Joe DiMaggio, chargé des funérailles de M. Monroe, a choisi le Westwood Memorial Park car c'est là que reposaient Grace Goddard (amie de la mère de Monroe) et la tante de G. Goddard, Ana Bas, qui avaient toutes les deux recueilli Marilyn enfant.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Principales personnalités enterrées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eddie Albert (1906 - 2005), acteur et producteur américain
 Robert Bloch (1917 - 1994), écrivain américain
